--- a/revised all year paper/CSCL_1997_revised.xlsx
+++ b/revised all year paper/CSCL_1997_revised.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenyimin/PycharmProjects/plugins-quickstart/revised all year paper/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8633D85-04E0-4545-909E-1072186F9435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4100" yWindow="2140" windowWidth="24500" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$L$1:$L$69</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1958,11 +1967,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2039,13 +2048,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2083,7 +2100,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2117,6 +2134,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2151,9 +2169,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2326,14 +2345,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2356,28 +2377,28 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>15</v>
@@ -2386,7 +2407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>851017</v>
       </c>
@@ -2409,28 +2430,28 @@
         <v>35765</v>
       </c>
       <c r="H2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I2" t="s">
         <v>122</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>326</v>
       </c>
-      <c r="L2" t="s">
-        <v>394</v>
-      </c>
       <c r="M2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N2" t="s">
+        <v>395</v>
+      </c>
+      <c r="O2" t="s">
         <v>396</v>
-      </c>
-      <c r="O2" t="s">
-        <v>463</v>
       </c>
       <c r="P2" t="s">
         <v>530</v>
@@ -2439,7 +2460,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>851017</v>
       </c>
@@ -2462,28 +2483,28 @@
         <v>35765</v>
       </c>
       <c r="H3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I3" t="s">
         <v>123</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>191</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>327</v>
       </c>
-      <c r="L3" t="s">
-        <v>394</v>
-      </c>
       <c r="M3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N3" t="s">
+        <v>395</v>
+      </c>
+      <c r="O3" t="s">
         <v>397</v>
-      </c>
-      <c r="O3" t="s">
-        <v>464</v>
       </c>
       <c r="P3" t="s">
         <v>530</v>
@@ -2492,7 +2513,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>851017</v>
       </c>
@@ -2515,28 +2536,28 @@
         <v>35765</v>
       </c>
       <c r="H4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I4" t="s">
         <v>124</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>192</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>328</v>
       </c>
-      <c r="L4" t="s">
-        <v>394</v>
-      </c>
       <c r="M4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N4" t="s">
+        <v>395</v>
+      </c>
+      <c r="O4" t="s">
         <v>398</v>
-      </c>
-      <c r="O4" t="s">
-        <v>465</v>
       </c>
       <c r="P4" t="s">
         <v>531</v>
@@ -2545,7 +2566,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>851017</v>
       </c>
@@ -2568,28 +2589,28 @@
         <v>35765</v>
       </c>
       <c r="H5" t="s">
+        <v>466</v>
+      </c>
+      <c r="I5" t="s">
         <v>125</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>193</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>329</v>
       </c>
-      <c r="L5" t="s">
-        <v>394</v>
-      </c>
       <c r="M5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N5" t="s">
+        <v>395</v>
+      </c>
+      <c r="O5" t="s">
         <v>399</v>
-      </c>
-      <c r="O5" t="s">
-        <v>466</v>
       </c>
       <c r="P5" t="s">
         <v>532</v>
@@ -2598,7 +2619,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>851017</v>
       </c>
@@ -2621,28 +2642,28 @@
         <v>35765</v>
       </c>
       <c r="H6" t="s">
+        <v>467</v>
+      </c>
+      <c r="I6" t="s">
         <v>126</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>194</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>330</v>
       </c>
-      <c r="L6" t="s">
-        <v>394</v>
-      </c>
       <c r="M6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N6" t="s">
+        <v>395</v>
+      </c>
+      <c r="O6" t="s">
         <v>400</v>
-      </c>
-      <c r="O6" t="s">
-        <v>467</v>
       </c>
       <c r="P6" t="s">
         <v>530</v>
@@ -2651,7 +2672,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>851017</v>
       </c>
@@ -2674,28 +2695,28 @@
         <v>35765</v>
       </c>
       <c r="H7" t="s">
+        <v>468</v>
+      </c>
+      <c r="I7" t="s">
         <v>127</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>195</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>331</v>
       </c>
-      <c r="L7" t="s">
-        <v>394</v>
-      </c>
       <c r="M7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N7" t="s">
+        <v>395</v>
+      </c>
+      <c r="O7" t="s">
         <v>401</v>
-      </c>
-      <c r="O7" t="s">
-        <v>468</v>
       </c>
       <c r="P7" t="s">
         <v>532</v>
@@ -2704,7 +2725,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>851017</v>
       </c>
@@ -2727,28 +2748,28 @@
         <v>35765</v>
       </c>
       <c r="H8" t="s">
+        <v>469</v>
+      </c>
+      <c r="I8" t="s">
         <v>128</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>196</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>332</v>
       </c>
-      <c r="L8" t="s">
-        <v>394</v>
-      </c>
       <c r="M8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N8" t="s">
+        <v>395</v>
+      </c>
+      <c r="O8" t="s">
         <v>402</v>
-      </c>
-      <c r="O8" t="s">
-        <v>469</v>
       </c>
       <c r="P8" t="s">
         <v>530</v>
@@ -2757,7 +2778,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>851017</v>
       </c>
@@ -2780,28 +2801,28 @@
         <v>35765</v>
       </c>
       <c r="H9" t="s">
+        <v>470</v>
+      </c>
+      <c r="I9" t="s">
         <v>129</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>197</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>333</v>
       </c>
-      <c r="L9" t="s">
-        <v>394</v>
-      </c>
       <c r="M9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N9" t="s">
+        <v>395</v>
+      </c>
+      <c r="O9" t="s">
         <v>403</v>
-      </c>
-      <c r="O9" t="s">
-        <v>470</v>
       </c>
       <c r="P9" t="s">
         <v>532</v>
@@ -2810,7 +2831,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>851017</v>
       </c>
@@ -2833,28 +2854,28 @@
         <v>35765</v>
       </c>
       <c r="H10" t="s">
+        <v>471</v>
+      </c>
+      <c r="I10" t="s">
         <v>130</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>198</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>334</v>
       </c>
-      <c r="L10" t="s">
-        <v>394</v>
-      </c>
       <c r="M10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N10" t="s">
+        <v>395</v>
+      </c>
+      <c r="O10" t="s">
         <v>404</v>
-      </c>
-      <c r="O10" t="s">
-        <v>471</v>
       </c>
       <c r="P10" t="s">
         <v>532</v>
@@ -2863,7 +2884,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>851017</v>
       </c>
@@ -2886,28 +2907,28 @@
         <v>35765</v>
       </c>
       <c r="H11" t="s">
+        <v>472</v>
+      </c>
+      <c r="I11" t="s">
         <v>131</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>199</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>335</v>
       </c>
-      <c r="L11" t="s">
-        <v>394</v>
-      </c>
       <c r="M11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N11" t="s">
+        <v>395</v>
+      </c>
+      <c r="O11" t="s">
         <v>405</v>
-      </c>
-      <c r="O11" t="s">
-        <v>472</v>
       </c>
       <c r="P11" t="s">
         <v>532</v>
@@ -2916,7 +2937,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>851017</v>
       </c>
@@ -2939,28 +2960,28 @@
         <v>35765</v>
       </c>
       <c r="H12" t="s">
+        <v>473</v>
+      </c>
+      <c r="I12" t="s">
         <v>132</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>336</v>
       </c>
-      <c r="L12" t="s">
-        <v>394</v>
-      </c>
       <c r="M12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N12" t="s">
+        <v>395</v>
+      </c>
+      <c r="O12" t="s">
         <v>406</v>
-      </c>
-      <c r="O12" t="s">
-        <v>473</v>
       </c>
       <c r="P12" t="s">
         <v>530</v>
@@ -2969,7 +2990,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>851017</v>
       </c>
@@ -2992,28 +3013,28 @@
         <v>35765</v>
       </c>
       <c r="H13" t="s">
+        <v>474</v>
+      </c>
+      <c r="I13" t="s">
         <v>133</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>201</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>337</v>
       </c>
-      <c r="L13" t="s">
-        <v>394</v>
-      </c>
       <c r="M13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N13" t="s">
+        <v>395</v>
+      </c>
+      <c r="O13" t="s">
         <v>407</v>
-      </c>
-      <c r="O13" t="s">
-        <v>474</v>
       </c>
       <c r="P13" t="s">
         <v>532</v>
@@ -3022,7 +3043,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>851017</v>
       </c>
@@ -3045,28 +3066,28 @@
         <v>35765</v>
       </c>
       <c r="H14" t="s">
+        <v>475</v>
+      </c>
+      <c r="I14" t="s">
         <v>134</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>202</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>338</v>
       </c>
-      <c r="L14" t="s">
-        <v>394</v>
-      </c>
       <c r="M14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N14" t="s">
+        <v>395</v>
+      </c>
+      <c r="O14" t="s">
         <v>408</v>
-      </c>
-      <c r="O14" t="s">
-        <v>475</v>
       </c>
       <c r="P14" t="s">
         <v>530</v>
@@ -3075,7 +3096,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>851017</v>
       </c>
@@ -3098,28 +3119,28 @@
         <v>35765</v>
       </c>
       <c r="H15" t="s">
+        <v>476</v>
+      </c>
+      <c r="I15" t="s">
         <v>135</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>203</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>339</v>
       </c>
-      <c r="L15" t="s">
-        <v>394</v>
-      </c>
       <c r="M15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N15" t="s">
+        <v>395</v>
+      </c>
+      <c r="O15" t="s">
         <v>409</v>
-      </c>
-      <c r="O15" t="s">
-        <v>476</v>
       </c>
       <c r="P15" t="s">
         <v>532</v>
@@ -3128,7 +3149,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>851017</v>
       </c>
@@ -3151,28 +3172,28 @@
         <v>35765</v>
       </c>
       <c r="H16" t="s">
+        <v>477</v>
+      </c>
+      <c r="I16" t="s">
         <v>136</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>204</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>340</v>
       </c>
-      <c r="L16" t="s">
-        <v>394</v>
-      </c>
       <c r="M16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N16" t="s">
+        <v>395</v>
+      </c>
+      <c r="O16" t="s">
         <v>410</v>
-      </c>
-      <c r="O16" t="s">
-        <v>477</v>
       </c>
       <c r="P16" t="s">
         <v>530</v>
@@ -3181,7 +3202,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>851017</v>
       </c>
@@ -3204,28 +3225,28 @@
         <v>35765</v>
       </c>
       <c r="H17" t="s">
+        <v>478</v>
+      </c>
+      <c r="I17" t="s">
         <v>137</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>205</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>341</v>
       </c>
-      <c r="L17" t="s">
-        <v>394</v>
-      </c>
       <c r="M17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N17" t="s">
+        <v>395</v>
+      </c>
+      <c r="O17" t="s">
         <v>411</v>
-      </c>
-      <c r="O17" t="s">
-        <v>478</v>
       </c>
       <c r="P17" t="s">
         <v>532</v>
@@ -3234,7 +3255,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>851017</v>
       </c>
@@ -3257,28 +3278,28 @@
         <v>35765</v>
       </c>
       <c r="H18" t="s">
+        <v>479</v>
+      </c>
+      <c r="I18" t="s">
         <v>138</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>206</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>342</v>
       </c>
-      <c r="L18" t="s">
-        <v>394</v>
-      </c>
       <c r="M18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N18" t="s">
+        <v>395</v>
+      </c>
+      <c r="O18" t="s">
         <v>412</v>
-      </c>
-      <c r="O18" t="s">
-        <v>479</v>
       </c>
       <c r="P18" t="s">
         <v>530</v>
@@ -3287,7 +3308,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>851017</v>
       </c>
@@ -3310,28 +3331,28 @@
         <v>35765</v>
       </c>
       <c r="H19" t="s">
+        <v>480</v>
+      </c>
+      <c r="I19" t="s">
         <v>139</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>207</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>343</v>
       </c>
-      <c r="L19" t="s">
-        <v>394</v>
-      </c>
       <c r="M19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N19" t="s">
+        <v>395</v>
+      </c>
+      <c r="O19" t="s">
         <v>413</v>
-      </c>
-      <c r="O19" t="s">
-        <v>480</v>
       </c>
       <c r="P19" t="s">
         <v>532</v>
@@ -3340,7 +3361,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>851017</v>
       </c>
@@ -3363,28 +3384,28 @@
         <v>35765</v>
       </c>
       <c r="H20" t="s">
+        <v>481</v>
+      </c>
+      <c r="I20" t="s">
         <v>140</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>208</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>344</v>
       </c>
-      <c r="L20" t="s">
-        <v>394</v>
-      </c>
       <c r="M20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N20" t="s">
+        <v>395</v>
+      </c>
+      <c r="O20" t="s">
         <v>414</v>
-      </c>
-      <c r="O20" t="s">
-        <v>481</v>
       </c>
       <c r="P20" t="s">
         <v>530</v>
@@ -3393,7 +3414,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>851017</v>
       </c>
@@ -3416,28 +3437,28 @@
         <v>35765</v>
       </c>
       <c r="H21" t="s">
+        <v>482</v>
+      </c>
+      <c r="I21" t="s">
         <v>141</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>209</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>345</v>
       </c>
-      <c r="L21" t="s">
-        <v>394</v>
-      </c>
       <c r="M21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N21" t="s">
+        <v>395</v>
+      </c>
+      <c r="O21" t="s">
         <v>415</v>
-      </c>
-      <c r="O21" t="s">
-        <v>482</v>
       </c>
       <c r="P21" t="s">
         <v>532</v>
@@ -3446,7 +3467,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>851017</v>
       </c>
@@ -3469,28 +3490,28 @@
         <v>35765</v>
       </c>
       <c r="H22" t="s">
+        <v>483</v>
+      </c>
+      <c r="I22" t="s">
         <v>142</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>210</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>346</v>
       </c>
-      <c r="L22" t="s">
-        <v>394</v>
-      </c>
       <c r="M22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N22" t="s">
+        <v>395</v>
+      </c>
+      <c r="O22" t="s">
         <v>416</v>
-      </c>
-      <c r="O22" t="s">
-        <v>483</v>
       </c>
       <c r="P22" t="s">
         <v>530</v>
@@ -3499,7 +3520,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>851017</v>
       </c>
@@ -3522,28 +3543,28 @@
         <v>35765</v>
       </c>
       <c r="H23" t="s">
+        <v>484</v>
+      </c>
+      <c r="I23" t="s">
         <v>143</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>211</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>347</v>
       </c>
-      <c r="L23" t="s">
-        <v>394</v>
-      </c>
       <c r="M23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N23" t="s">
+        <v>395</v>
+      </c>
+      <c r="O23" t="s">
         <v>417</v>
-      </c>
-      <c r="O23" t="s">
-        <v>484</v>
       </c>
       <c r="P23" t="s">
         <v>530</v>
@@ -3552,7 +3573,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>851017</v>
       </c>
@@ -3575,28 +3596,28 @@
         <v>35765</v>
       </c>
       <c r="H24" t="s">
+        <v>485</v>
+      </c>
+      <c r="I24" t="s">
         <v>144</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>212</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>348</v>
       </c>
-      <c r="L24" t="s">
-        <v>394</v>
-      </c>
       <c r="M24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N24" t="s">
+        <v>395</v>
+      </c>
+      <c r="O24" t="s">
         <v>418</v>
-      </c>
-      <c r="O24" t="s">
-        <v>485</v>
       </c>
       <c r="P24" t="s">
         <v>532</v>
@@ -3605,7 +3626,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>851017</v>
       </c>
@@ -3628,28 +3649,28 @@
         <v>35765</v>
       </c>
       <c r="H25" t="s">
+        <v>486</v>
+      </c>
+      <c r="I25" t="s">
         <v>145</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>213</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>349</v>
       </c>
-      <c r="L25" t="s">
-        <v>394</v>
-      </c>
       <c r="M25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N25" t="s">
+        <v>395</v>
+      </c>
+      <c r="O25" t="s">
         <v>419</v>
-      </c>
-      <c r="O25" t="s">
-        <v>486</v>
       </c>
       <c r="P25" t="s">
         <v>532</v>
@@ -3658,7 +3679,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>851017</v>
       </c>
@@ -3681,28 +3702,28 @@
         <v>35765</v>
       </c>
       <c r="H26" t="s">
+        <v>487</v>
+      </c>
+      <c r="I26" t="s">
         <v>146</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>214</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>350</v>
       </c>
-      <c r="L26" t="s">
-        <v>394</v>
-      </c>
       <c r="M26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N26" t="s">
+        <v>395</v>
+      </c>
+      <c r="O26" t="s">
         <v>420</v>
-      </c>
-      <c r="O26" t="s">
-        <v>487</v>
       </c>
       <c r="P26" t="s">
         <v>530</v>
@@ -3711,7 +3732,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>851017</v>
       </c>
@@ -3734,28 +3755,28 @@
         <v>35765</v>
       </c>
       <c r="H27" t="s">
+        <v>488</v>
+      </c>
+      <c r="I27" t="s">
         <v>147</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>215</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>351</v>
       </c>
-      <c r="L27" t="s">
-        <v>394</v>
-      </c>
       <c r="M27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N27" t="s">
+        <v>395</v>
+      </c>
+      <c r="O27" t="s">
         <v>421</v>
-      </c>
-      <c r="O27" t="s">
-        <v>488</v>
       </c>
       <c r="P27" t="s">
         <v>532</v>
@@ -3764,7 +3785,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>851017</v>
       </c>
@@ -3787,28 +3808,28 @@
         <v>35765</v>
       </c>
       <c r="H28" t="s">
+        <v>489</v>
+      </c>
+      <c r="I28" t="s">
         <v>148</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>216</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>352</v>
       </c>
-      <c r="L28" t="s">
-        <v>394</v>
-      </c>
       <c r="M28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N28" t="s">
+        <v>395</v>
+      </c>
+      <c r="O28" t="s">
         <v>422</v>
-      </c>
-      <c r="O28" t="s">
-        <v>489</v>
       </c>
       <c r="P28" t="s">
         <v>532</v>
@@ -3817,7 +3838,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>851017</v>
       </c>
@@ -3840,28 +3861,28 @@
         <v>35765</v>
       </c>
       <c r="H29" t="s">
+        <v>490</v>
+      </c>
+      <c r="I29" t="s">
         <v>149</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>217</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>353</v>
       </c>
-      <c r="L29" t="s">
-        <v>394</v>
-      </c>
       <c r="M29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N29" t="s">
+        <v>395</v>
+      </c>
+      <c r="O29" t="s">
         <v>423</v>
-      </c>
-      <c r="O29" t="s">
-        <v>490</v>
       </c>
       <c r="P29" t="s">
         <v>532</v>
@@ -3870,7 +3891,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>851017</v>
       </c>
@@ -3893,28 +3914,28 @@
         <v>35765</v>
       </c>
       <c r="H30" t="s">
+        <v>491</v>
+      </c>
+      <c r="I30" t="s">
         <v>150</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>218</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>354</v>
       </c>
-      <c r="L30" t="s">
-        <v>394</v>
-      </c>
       <c r="M30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N30" t="s">
+        <v>395</v>
+      </c>
+      <c r="O30" t="s">
         <v>424</v>
-      </c>
-      <c r="O30" t="s">
-        <v>491</v>
       </c>
       <c r="P30" t="s">
         <v>530</v>
@@ -3923,7 +3944,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>851017</v>
       </c>
@@ -3946,28 +3967,28 @@
         <v>35765</v>
       </c>
       <c r="H31" t="s">
+        <v>492</v>
+      </c>
+      <c r="I31" t="s">
         <v>151</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>219</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>355</v>
       </c>
-      <c r="L31" t="s">
-        <v>394</v>
-      </c>
       <c r="M31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N31" t="s">
+        <v>395</v>
+      </c>
+      <c r="O31" t="s">
         <v>425</v>
-      </c>
-      <c r="O31" t="s">
-        <v>492</v>
       </c>
       <c r="P31" t="s">
         <v>532</v>
@@ -3976,7 +3997,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>851017</v>
       </c>
@@ -3999,28 +4020,28 @@
         <v>35765</v>
       </c>
       <c r="H32" t="s">
+        <v>493</v>
+      </c>
+      <c r="I32" t="s">
         <v>152</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>220</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>356</v>
       </c>
-      <c r="L32" t="s">
-        <v>394</v>
-      </c>
       <c r="M32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N32" t="s">
+        <v>395</v>
+      </c>
+      <c r="O32" t="s">
         <v>426</v>
-      </c>
-      <c r="O32" t="s">
-        <v>493</v>
       </c>
       <c r="P32" t="s">
         <v>530</v>
@@ -4029,7 +4050,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>851017</v>
       </c>
@@ -4052,28 +4073,28 @@
         <v>35765</v>
       </c>
       <c r="H33" t="s">
+        <v>494</v>
+      </c>
+      <c r="I33" t="s">
         <v>153</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>221</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>357</v>
       </c>
-      <c r="L33" t="s">
-        <v>394</v>
-      </c>
       <c r="M33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N33" t="s">
+        <v>395</v>
+      </c>
+      <c r="O33" t="s">
         <v>427</v>
-      </c>
-      <c r="O33" t="s">
-        <v>494</v>
       </c>
       <c r="P33" t="s">
         <v>532</v>
@@ -4082,7 +4103,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>851017</v>
       </c>
@@ -4105,28 +4126,28 @@
         <v>35765</v>
       </c>
       <c r="H34" t="s">
+        <v>495</v>
+      </c>
+      <c r="I34" t="s">
         <v>154</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>222</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>358</v>
       </c>
-      <c r="L34" t="s">
-        <v>394</v>
-      </c>
       <c r="M34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N34" t="s">
+        <v>395</v>
+      </c>
+      <c r="O34" t="s">
         <v>428</v>
-      </c>
-      <c r="O34" t="s">
-        <v>495</v>
       </c>
       <c r="P34" t="s">
         <v>532</v>
@@ -4135,7 +4156,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>851017</v>
       </c>
@@ -4158,28 +4179,28 @@
         <v>35765</v>
       </c>
       <c r="H35" t="s">
+        <v>496</v>
+      </c>
+      <c r="I35" t="s">
         <v>155</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>223</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>359</v>
       </c>
-      <c r="L35" t="s">
-        <v>394</v>
-      </c>
       <c r="M35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N35" t="s">
+        <v>395</v>
+      </c>
+      <c r="O35" t="s">
         <v>429</v>
-      </c>
-      <c r="O35" t="s">
-        <v>496</v>
       </c>
       <c r="P35" t="s">
         <v>530</v>
@@ -4188,7 +4209,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>851017</v>
       </c>
@@ -4211,28 +4232,28 @@
         <v>35765</v>
       </c>
       <c r="H36" t="s">
+        <v>497</v>
+      </c>
+      <c r="I36" t="s">
         <v>156</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>224</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>360</v>
       </c>
-      <c r="L36" t="s">
-        <v>394</v>
-      </c>
       <c r="M36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N36" t="s">
+        <v>395</v>
+      </c>
+      <c r="O36" t="s">
         <v>430</v>
-      </c>
-      <c r="O36" t="s">
-        <v>497</v>
       </c>
       <c r="P36" t="s">
         <v>532</v>
@@ -4241,7 +4262,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>851017</v>
       </c>
@@ -4264,28 +4285,28 @@
         <v>35765</v>
       </c>
       <c r="H37" t="s">
+        <v>498</v>
+      </c>
+      <c r="I37" t="s">
         <v>157</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>225</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>361</v>
       </c>
-      <c r="L37" t="s">
-        <v>394</v>
-      </c>
       <c r="M37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N37" t="s">
+        <v>395</v>
+      </c>
+      <c r="O37" t="s">
         <v>431</v>
-      </c>
-      <c r="O37" t="s">
-        <v>498</v>
       </c>
       <c r="P37" t="s">
         <v>530</v>
@@ -4294,7 +4315,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>851017</v>
       </c>
@@ -4317,28 +4338,28 @@
         <v>35765</v>
       </c>
       <c r="H38" t="s">
+        <v>499</v>
+      </c>
+      <c r="I38" t="s">
         <v>158</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>226</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>362</v>
       </c>
-      <c r="L38" t="s">
-        <v>394</v>
-      </c>
       <c r="M38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N38" t="s">
+        <v>395</v>
+      </c>
+      <c r="O38" t="s">
         <v>432</v>
-      </c>
-      <c r="O38" t="s">
-        <v>499</v>
       </c>
       <c r="P38" t="s">
         <v>532</v>
@@ -4347,7 +4368,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>851017</v>
       </c>
@@ -4370,28 +4391,28 @@
         <v>35765</v>
       </c>
       <c r="H39" t="s">
+        <v>500</v>
+      </c>
+      <c r="I39" t="s">
         <v>159</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>227</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>363</v>
       </c>
-      <c r="L39" t="s">
-        <v>394</v>
-      </c>
       <c r="M39" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N39" t="s">
+        <v>395</v>
+      </c>
+      <c r="O39" t="s">
         <v>433</v>
-      </c>
-      <c r="O39" t="s">
-        <v>500</v>
       </c>
       <c r="P39" t="s">
         <v>532</v>
@@ -4400,7 +4421,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>851017</v>
       </c>
@@ -4423,28 +4444,28 @@
         <v>35765</v>
       </c>
       <c r="H40" t="s">
+        <v>501</v>
+      </c>
+      <c r="I40" t="s">
         <v>160</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>228</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>364</v>
       </c>
-      <c r="L40" t="s">
-        <v>394</v>
-      </c>
       <c r="M40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N40" t="s">
+        <v>395</v>
+      </c>
+      <c r="O40" t="s">
         <v>434</v>
-      </c>
-      <c r="O40" t="s">
-        <v>501</v>
       </c>
       <c r="P40" t="s">
         <v>530</v>
@@ -4453,7 +4474,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>851017</v>
       </c>
@@ -4476,28 +4497,28 @@
         <v>35765</v>
       </c>
       <c r="H41" t="s">
+        <v>502</v>
+      </c>
+      <c r="I41" t="s">
         <v>161</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>229</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>365</v>
       </c>
-      <c r="L41" t="s">
-        <v>394</v>
-      </c>
       <c r="M41" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N41" t="s">
+        <v>395</v>
+      </c>
+      <c r="O41" t="s">
         <v>435</v>
-      </c>
-      <c r="O41" t="s">
-        <v>502</v>
       </c>
       <c r="P41" t="s">
         <v>532</v>
@@ -4506,7 +4527,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>851017</v>
       </c>
@@ -4529,28 +4550,28 @@
         <v>35765</v>
       </c>
       <c r="H42" t="s">
+        <v>503</v>
+      </c>
+      <c r="I42" t="s">
         <v>162</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>230</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>366</v>
       </c>
-      <c r="L42" t="s">
-        <v>394</v>
-      </c>
       <c r="M42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N42" t="s">
+        <v>395</v>
+      </c>
+      <c r="O42" t="s">
         <v>436</v>
-      </c>
-      <c r="O42" t="s">
-        <v>503</v>
       </c>
       <c r="P42" t="s">
         <v>530</v>
@@ -4559,7 +4580,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>851017</v>
       </c>
@@ -4582,28 +4603,28 @@
         <v>35765</v>
       </c>
       <c r="H43" t="s">
+        <v>504</v>
+      </c>
+      <c r="I43" t="s">
         <v>163</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>231</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>367</v>
       </c>
-      <c r="L43" t="s">
-        <v>394</v>
-      </c>
       <c r="M43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N43" t="s">
+        <v>395</v>
+      </c>
+      <c r="O43" t="s">
         <v>437</v>
-      </c>
-      <c r="O43" t="s">
-        <v>504</v>
       </c>
       <c r="P43" t="s">
         <v>530</v>
@@ -4612,7 +4633,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>851017</v>
       </c>
@@ -4635,28 +4656,28 @@
         <v>35765</v>
       </c>
       <c r="H44" t="s">
+        <v>505</v>
+      </c>
+      <c r="I44" t="s">
         <v>164</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>232</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="K44" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>368</v>
       </c>
-      <c r="L44" t="s">
-        <v>394</v>
-      </c>
       <c r="M44" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N44" t="s">
+        <v>395</v>
+      </c>
+      <c r="O44" t="s">
         <v>438</v>
-      </c>
-      <c r="O44" t="s">
-        <v>505</v>
       </c>
       <c r="P44" t="s">
         <v>532</v>
@@ -4665,7 +4686,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>851017</v>
       </c>
@@ -4688,28 +4709,28 @@
         <v>35765</v>
       </c>
       <c r="H45" t="s">
+        <v>506</v>
+      </c>
+      <c r="I45" t="s">
         <v>165</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>233</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>369</v>
       </c>
-      <c r="L45" t="s">
-        <v>394</v>
-      </c>
       <c r="M45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N45" t="s">
+        <v>395</v>
+      </c>
+      <c r="O45" t="s">
         <v>439</v>
-      </c>
-      <c r="O45" t="s">
-        <v>506</v>
       </c>
       <c r="P45" t="s">
         <v>530</v>
@@ -4718,7 +4739,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>851017</v>
       </c>
@@ -4741,28 +4762,28 @@
         <v>35765</v>
       </c>
       <c r="H46" t="s">
+        <v>507</v>
+      </c>
+      <c r="I46" t="s">
         <v>166</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>234</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="K46" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>370</v>
       </c>
-      <c r="L46" t="s">
-        <v>394</v>
-      </c>
       <c r="M46" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N46" t="s">
+        <v>395</v>
+      </c>
+      <c r="O46" t="s">
         <v>440</v>
-      </c>
-      <c r="O46" t="s">
-        <v>507</v>
       </c>
       <c r="P46" t="s">
         <v>532</v>
@@ -4771,7 +4792,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>851017</v>
       </c>
@@ -4794,28 +4815,28 @@
         <v>35765</v>
       </c>
       <c r="H47" t="s">
+        <v>508</v>
+      </c>
+      <c r="I47" t="s">
         <v>167</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>235</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="K47" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>371</v>
       </c>
-      <c r="L47" t="s">
-        <v>394</v>
-      </c>
       <c r="M47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N47" t="s">
+        <v>395</v>
+      </c>
+      <c r="O47" t="s">
         <v>441</v>
-      </c>
-      <c r="O47" t="s">
-        <v>508</v>
       </c>
       <c r="P47" t="s">
         <v>532</v>
@@ -4824,7 +4845,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>851017</v>
       </c>
@@ -4847,28 +4868,28 @@
         <v>35765</v>
       </c>
       <c r="H48" t="s">
+        <v>509</v>
+      </c>
+      <c r="I48" t="s">
         <v>168</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>236</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>372</v>
       </c>
-      <c r="L48" t="s">
-        <v>394</v>
-      </c>
       <c r="M48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N48" t="s">
+        <v>395</v>
+      </c>
+      <c r="O48" t="s">
         <v>442</v>
-      </c>
-      <c r="O48" t="s">
-        <v>509</v>
       </c>
       <c r="P48" t="s">
         <v>530</v>
@@ -4877,7 +4898,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>851017</v>
       </c>
@@ -4900,28 +4921,28 @@
         <v>35765</v>
       </c>
       <c r="H49" t="s">
+        <v>510</v>
+      </c>
+      <c r="I49" t="s">
         <v>169</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>237</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="K49" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>373</v>
       </c>
-      <c r="L49" t="s">
-        <v>394</v>
-      </c>
       <c r="M49" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N49" t="s">
+        <v>395</v>
+      </c>
+      <c r="O49" t="s">
         <v>443</v>
-      </c>
-      <c r="O49" t="s">
-        <v>510</v>
       </c>
       <c r="P49" t="s">
         <v>532</v>
@@ -4930,7 +4951,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>851017</v>
       </c>
@@ -4953,28 +4974,28 @@
         <v>35765</v>
       </c>
       <c r="H50" t="s">
+        <v>511</v>
+      </c>
+      <c r="I50" t="s">
         <v>170</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>238</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="K50" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>374</v>
       </c>
-      <c r="L50" t="s">
-        <v>394</v>
-      </c>
       <c r="M50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N50" t="s">
+        <v>395</v>
+      </c>
+      <c r="O50" t="s">
         <v>444</v>
-      </c>
-      <c r="O50" t="s">
-        <v>511</v>
       </c>
       <c r="P50" t="s">
         <v>530</v>
@@ -4983,7 +5004,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>851017</v>
       </c>
@@ -5006,28 +5027,28 @@
         <v>35765</v>
       </c>
       <c r="H51" t="s">
+        <v>512</v>
+      </c>
+      <c r="I51" t="s">
         <v>171</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>239</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>375</v>
       </c>
-      <c r="L51" t="s">
-        <v>394</v>
-      </c>
       <c r="M51" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N51" t="s">
+        <v>395</v>
+      </c>
+      <c r="O51" t="s">
         <v>445</v>
-      </c>
-      <c r="O51" t="s">
-        <v>512</v>
       </c>
       <c r="P51" t="s">
         <v>532</v>
@@ -5036,7 +5057,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>851017</v>
       </c>
@@ -5059,28 +5080,28 @@
         <v>35765</v>
       </c>
       <c r="H52" t="s">
+        <v>513</v>
+      </c>
+      <c r="I52" t="s">
         <v>172</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>240</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>376</v>
       </c>
-      <c r="L52" t="s">
-        <v>394</v>
-      </c>
       <c r="M52" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N52" t="s">
+        <v>395</v>
+      </c>
+      <c r="O52" t="s">
         <v>446</v>
-      </c>
-      <c r="O52" t="s">
-        <v>513</v>
       </c>
       <c r="P52" t="s">
         <v>532</v>
@@ -5089,7 +5110,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>851017</v>
       </c>
@@ -5112,28 +5133,28 @@
         <v>35765</v>
       </c>
       <c r="H53" t="s">
+        <v>514</v>
+      </c>
+      <c r="I53" t="s">
         <v>173</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>241</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>377</v>
       </c>
-      <c r="L53" t="s">
-        <v>394</v>
-      </c>
       <c r="M53" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N53" t="s">
+        <v>395</v>
+      </c>
+      <c r="O53" t="s">
         <v>447</v>
-      </c>
-      <c r="O53" t="s">
-        <v>514</v>
       </c>
       <c r="P53" t="s">
         <v>530</v>
@@ -5142,7 +5163,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>851017</v>
       </c>
@@ -5165,28 +5186,28 @@
         <v>35765</v>
       </c>
       <c r="H54" t="s">
+        <v>515</v>
+      </c>
+      <c r="I54" t="s">
         <v>174</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>242</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>378</v>
       </c>
-      <c r="L54" t="s">
-        <v>394</v>
-      </c>
       <c r="M54" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N54" t="s">
+        <v>395</v>
+      </c>
+      <c r="O54" t="s">
         <v>448</v>
-      </c>
-      <c r="O54" t="s">
-        <v>515</v>
       </c>
       <c r="P54" t="s">
         <v>532</v>
@@ -5195,7 +5216,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>851017</v>
       </c>
@@ -5218,28 +5239,28 @@
         <v>35765</v>
       </c>
       <c r="H55" t="s">
+        <v>516</v>
+      </c>
+      <c r="I55" t="s">
         <v>175</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>243</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>379</v>
       </c>
-      <c r="L55" t="s">
-        <v>394</v>
-      </c>
       <c r="M55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N55" t="s">
+        <v>395</v>
+      </c>
+      <c r="O55" t="s">
         <v>449</v>
-      </c>
-      <c r="O55" t="s">
-        <v>516</v>
       </c>
       <c r="P55" t="s">
         <v>530</v>
@@ -5248,7 +5269,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>851017</v>
       </c>
@@ -5271,28 +5292,28 @@
         <v>35765</v>
       </c>
       <c r="H56" t="s">
+        <v>517</v>
+      </c>
+      <c r="I56" t="s">
         <v>176</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>244</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="K56" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>380</v>
       </c>
-      <c r="L56" t="s">
-        <v>394</v>
-      </c>
       <c r="M56" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N56" t="s">
+        <v>395</v>
+      </c>
+      <c r="O56" t="s">
         <v>450</v>
-      </c>
-      <c r="O56" t="s">
-        <v>517</v>
       </c>
       <c r="P56" t="s">
         <v>530</v>
@@ -5301,7 +5322,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>851017</v>
       </c>
@@ -5324,28 +5345,28 @@
         <v>35765</v>
       </c>
       <c r="H57" t="s">
+        <v>518</v>
+      </c>
+      <c r="I57" t="s">
         <v>177</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>245</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="K57" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>381</v>
       </c>
-      <c r="L57" t="s">
-        <v>394</v>
-      </c>
       <c r="M57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N57" t="s">
+        <v>395</v>
+      </c>
+      <c r="O57" t="s">
         <v>451</v>
-      </c>
-      <c r="O57" t="s">
-        <v>518</v>
       </c>
       <c r="P57" t="s">
         <v>531</v>
@@ -5354,7 +5375,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>851017</v>
       </c>
@@ -5377,28 +5398,28 @@
         <v>35765</v>
       </c>
       <c r="H58" t="s">
+        <v>519</v>
+      </c>
+      <c r="I58" t="s">
         <v>178</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>246</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>382</v>
       </c>
-      <c r="L58" t="s">
-        <v>394</v>
-      </c>
       <c r="M58" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N58" t="s">
+        <v>395</v>
+      </c>
+      <c r="O58" t="s">
         <v>452</v>
-      </c>
-      <c r="O58" t="s">
-        <v>519</v>
       </c>
       <c r="P58" t="s">
         <v>530</v>
@@ -5407,7 +5428,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>851017</v>
       </c>
@@ -5430,28 +5451,28 @@
         <v>35765</v>
       </c>
       <c r="H59" t="s">
+        <v>520</v>
+      </c>
+      <c r="I59" t="s">
         <v>179</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>247</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="K59" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>383</v>
       </c>
-      <c r="L59" t="s">
-        <v>394</v>
-      </c>
       <c r="M59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N59" t="s">
+        <v>395</v>
+      </c>
+      <c r="O59" t="s">
         <v>453</v>
-      </c>
-      <c r="O59" t="s">
-        <v>520</v>
       </c>
       <c r="P59" t="s">
         <v>531</v>
@@ -5460,7 +5481,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>851017</v>
       </c>
@@ -5483,28 +5504,28 @@
         <v>35765</v>
       </c>
       <c r="H60" t="s">
+        <v>521</v>
+      </c>
+      <c r="I60" t="s">
         <v>180</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>248</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>384</v>
       </c>
-      <c r="L60" t="s">
-        <v>394</v>
-      </c>
       <c r="M60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N60" t="s">
+        <v>395</v>
+      </c>
+      <c r="O60" t="s">
         <v>454</v>
-      </c>
-      <c r="O60" t="s">
-        <v>521</v>
       </c>
       <c r="P60" t="s">
         <v>530</v>
@@ -5513,7 +5534,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>851017</v>
       </c>
@@ -5536,28 +5557,28 @@
         <v>35765</v>
       </c>
       <c r="H61" t="s">
+        <v>522</v>
+      </c>
+      <c r="I61" t="s">
         <v>181</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>249</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>385</v>
       </c>
-      <c r="L61" t="s">
-        <v>394</v>
-      </c>
       <c r="M61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N61" t="s">
+        <v>395</v>
+      </c>
+      <c r="O61" t="s">
         <v>455</v>
-      </c>
-      <c r="O61" t="s">
-        <v>522</v>
       </c>
       <c r="P61" t="s">
         <v>531</v>
@@ -5566,7 +5587,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>851017</v>
       </c>
@@ -5589,28 +5610,28 @@
         <v>35765</v>
       </c>
       <c r="H62" t="s">
+        <v>495</v>
+      </c>
+      <c r="I62" t="s">
         <v>182</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>250</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>386</v>
       </c>
-      <c r="L62" t="s">
-        <v>394</v>
-      </c>
       <c r="M62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N62" t="s">
+        <v>395</v>
+      </c>
+      <c r="O62" t="s">
         <v>428</v>
-      </c>
-      <c r="O62" t="s">
-        <v>495</v>
       </c>
       <c r="P62" t="s">
         <v>530</v>
@@ -5619,7 +5640,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>851017</v>
       </c>
@@ -5642,28 +5663,28 @@
         <v>35765</v>
       </c>
       <c r="H63" t="s">
+        <v>523</v>
+      </c>
+      <c r="I63" t="s">
         <v>183</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>251</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="K63" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>387</v>
       </c>
-      <c r="L63" t="s">
-        <v>394</v>
-      </c>
       <c r="M63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N63" t="s">
+        <v>395</v>
+      </c>
+      <c r="O63" t="s">
         <v>456</v>
-      </c>
-      <c r="O63" t="s">
-        <v>523</v>
       </c>
       <c r="P63" t="s">
         <v>531</v>
@@ -5672,7 +5693,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>851017</v>
       </c>
@@ -5695,28 +5716,28 @@
         <v>35765</v>
       </c>
       <c r="H64" t="s">
+        <v>524</v>
+      </c>
+      <c r="I64" t="s">
         <v>184</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>252</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="K64" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>388</v>
       </c>
-      <c r="L64" t="s">
-        <v>394</v>
-      </c>
       <c r="M64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N64" t="s">
+        <v>395</v>
+      </c>
+      <c r="O64" t="s">
         <v>457</v>
-      </c>
-      <c r="O64" t="s">
-        <v>524</v>
       </c>
       <c r="P64" t="s">
         <v>530</v>
@@ -5725,7 +5746,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>851017</v>
       </c>
@@ -5748,28 +5769,28 @@
         <v>35765</v>
       </c>
       <c r="H65" t="s">
+        <v>525</v>
+      </c>
+      <c r="I65" t="s">
         <v>185</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>253</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="K65" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>389</v>
       </c>
-      <c r="L65" t="s">
-        <v>394</v>
-      </c>
       <c r="M65" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N65" t="s">
+        <v>395</v>
+      </c>
+      <c r="O65" t="s">
         <v>458</v>
-      </c>
-      <c r="O65" t="s">
-        <v>525</v>
       </c>
       <c r="P65" t="s">
         <v>531</v>
@@ -5778,7 +5799,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>851017</v>
       </c>
@@ -5801,28 +5822,28 @@
         <v>35765</v>
       </c>
       <c r="H66" t="s">
+        <v>526</v>
+      </c>
+      <c r="I66" t="s">
         <v>186</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>254</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="K66" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>390</v>
       </c>
-      <c r="L66" t="s">
-        <v>394</v>
-      </c>
       <c r="M66" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N66" t="s">
+        <v>395</v>
+      </c>
+      <c r="O66" t="s">
         <v>459</v>
-      </c>
-      <c r="O66" t="s">
-        <v>526</v>
       </c>
       <c r="P66" t="s">
         <v>531</v>
@@ -5831,7 +5852,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>851017</v>
       </c>
@@ -5854,28 +5875,28 @@
         <v>35765</v>
       </c>
       <c r="H67" t="s">
+        <v>527</v>
+      </c>
+      <c r="I67" t="s">
         <v>187</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>255</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="K67" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>391</v>
       </c>
-      <c r="L67" t="s">
-        <v>394</v>
-      </c>
       <c r="M67" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N67" t="s">
+        <v>395</v>
+      </c>
+      <c r="O67" t="s">
         <v>460</v>
-      </c>
-      <c r="O67" t="s">
-        <v>527</v>
       </c>
       <c r="P67" t="s">
         <v>530</v>
@@ -5884,7 +5905,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>851017</v>
       </c>
@@ -5907,28 +5928,28 @@
         <v>35765</v>
       </c>
       <c r="H68" t="s">
+        <v>528</v>
+      </c>
+      <c r="I68" t="s">
         <v>188</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>256</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="K68" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>392</v>
       </c>
-      <c r="L68" t="s">
-        <v>394</v>
-      </c>
       <c r="M68" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N68" t="s">
+        <v>395</v>
+      </c>
+      <c r="O68" t="s">
         <v>461</v>
-      </c>
-      <c r="O68" t="s">
-        <v>528</v>
       </c>
       <c r="P68" t="s">
         <v>531</v>
@@ -5937,7 +5958,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>851017</v>
       </c>
@@ -5960,28 +5981,28 @@
         <v>35765</v>
       </c>
       <c r="H69" t="s">
+        <v>529</v>
+      </c>
+      <c r="I69" t="s">
         <v>189</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>257</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="K69" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>393</v>
       </c>
-      <c r="L69" t="s">
-        <v>394</v>
-      </c>
       <c r="M69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N69" t="s">
+        <v>395</v>
+      </c>
+      <c r="O69" t="s">
         <v>462</v>
-      </c>
-      <c r="O69" t="s">
-        <v>529</v>
       </c>
       <c r="P69" t="s">
         <v>531</v>
@@ -5991,75 +6012,76 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="L1:L69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
-    <hyperlink ref="J5" r:id="rId4"/>
-    <hyperlink ref="J6" r:id="rId5"/>
-    <hyperlink ref="J7" r:id="rId6"/>
-    <hyperlink ref="J8" r:id="rId7"/>
-    <hyperlink ref="J9" r:id="rId8"/>
-    <hyperlink ref="J10" r:id="rId9"/>
-    <hyperlink ref="J11" r:id="rId10"/>
-    <hyperlink ref="J12" r:id="rId11"/>
-    <hyperlink ref="J13" r:id="rId12"/>
-    <hyperlink ref="J14" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J16" r:id="rId15"/>
-    <hyperlink ref="J17" r:id="rId16"/>
-    <hyperlink ref="J18" r:id="rId17"/>
-    <hyperlink ref="J19" r:id="rId18"/>
-    <hyperlink ref="J20" r:id="rId19"/>
-    <hyperlink ref="J21" r:id="rId20"/>
-    <hyperlink ref="J22" r:id="rId21"/>
-    <hyperlink ref="J23" r:id="rId22"/>
-    <hyperlink ref="J24" r:id="rId23"/>
-    <hyperlink ref="J25" r:id="rId24"/>
-    <hyperlink ref="J26" r:id="rId25"/>
-    <hyperlink ref="J27" r:id="rId26"/>
-    <hyperlink ref="J28" r:id="rId27"/>
-    <hyperlink ref="J29" r:id="rId28"/>
-    <hyperlink ref="J30" r:id="rId29"/>
-    <hyperlink ref="J31" r:id="rId30"/>
-    <hyperlink ref="J32" r:id="rId31"/>
-    <hyperlink ref="J33" r:id="rId32"/>
-    <hyperlink ref="J34" r:id="rId33"/>
-    <hyperlink ref="J35" r:id="rId34"/>
-    <hyperlink ref="J36" r:id="rId35"/>
-    <hyperlink ref="J37" r:id="rId36"/>
-    <hyperlink ref="J38" r:id="rId37"/>
-    <hyperlink ref="J39" r:id="rId38"/>
-    <hyperlink ref="J40" r:id="rId39"/>
-    <hyperlink ref="J41" r:id="rId40"/>
-    <hyperlink ref="J42" r:id="rId41"/>
-    <hyperlink ref="J43" r:id="rId42"/>
-    <hyperlink ref="J44" r:id="rId43"/>
-    <hyperlink ref="J45" r:id="rId44"/>
-    <hyperlink ref="J46" r:id="rId45"/>
-    <hyperlink ref="J47" r:id="rId46"/>
-    <hyperlink ref="J48" r:id="rId47"/>
-    <hyperlink ref="J49" r:id="rId48"/>
-    <hyperlink ref="J50" r:id="rId49"/>
-    <hyperlink ref="J51" r:id="rId50"/>
-    <hyperlink ref="J52" r:id="rId51"/>
-    <hyperlink ref="J53" r:id="rId52"/>
-    <hyperlink ref="J54" r:id="rId53"/>
-    <hyperlink ref="J55" r:id="rId54"/>
-    <hyperlink ref="J56" r:id="rId55"/>
-    <hyperlink ref="J57" r:id="rId56"/>
-    <hyperlink ref="J58" r:id="rId57"/>
-    <hyperlink ref="J59" r:id="rId58"/>
-    <hyperlink ref="J60" r:id="rId59"/>
-    <hyperlink ref="J61" r:id="rId60"/>
-    <hyperlink ref="J62" r:id="rId61"/>
-    <hyperlink ref="J63" r:id="rId62"/>
-    <hyperlink ref="J64" r:id="rId63"/>
-    <hyperlink ref="J65" r:id="rId64"/>
-    <hyperlink ref="J66" r:id="rId65"/>
-    <hyperlink ref="J67" r:id="rId66"/>
-    <hyperlink ref="J68" r:id="rId67"/>
-    <hyperlink ref="J69" r:id="rId68"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="K40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="K42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="K44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="K46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="K48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="K49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="K50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="K51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="K52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="K53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="K54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="K55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="K56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="K57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="K58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="K59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="K60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="K61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="K62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="K63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="K64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="K65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="K66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="K67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="K68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="K69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
